--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -5,20 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamir\OneDrive\Desktop\Projects\Kmeans\kmeans\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2325f11b474e16c2/Desktop/Projects/Kmeans/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A848EAE7-05CD-4EC7-A07B-CD66DD94098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{A848EAE7-05CD-4EC7-A07B-CD66DD94098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482E3F10-54BA-4BF3-8BAE-877AD1713973}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41BC285C-F860-4750-B598-CEC70B0767CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41BC285C-F860-4750-B598-CEC70B0767CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +52,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -87,7 +98,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -383,13 +394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20754157-BE4F-41C5-8638-3E921FB0E3C3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -401,26 +412,2502 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <f t="shared" ref="A2:A4" ca="1" si="0">RANDBETWEEN(0, 1000)</f>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <f t="shared" ref="B2:B4" ca="1" si="1">RANDBETWEEN(0, 1000)</f>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>402</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f ca="1">RANDBETWEEN(0, 1000)</f>
+        <v>732</v>
+      </c>
+      <c r="B5">
+        <f ca="1">RANDBETWEEN(0, 1000)</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:B69" ca="1" si="2">RANDBETWEEN(0, 1000)</f>
+        <v>322</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="2"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="2"/>
+        <v>536</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="2"/>
+        <v>424</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="2"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ca="1" si="2"/>
+        <v>456</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="2"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>6</v>
+      <c r="B10">
+        <f t="shared" ca="1" si="2"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ca="1" si="2"/>
+        <v>369</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="2"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ca="1" si="2"/>
+        <v>649</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="2"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ca="1" si="2"/>
+        <v>806</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="2"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ca="1" si="2"/>
+        <v>976</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="2"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="2"/>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ca="1" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="2"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ca="1" si="2"/>
+        <v>768</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="2"/>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" ca="1" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="2"/>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" ca="1" si="2"/>
+        <v>880</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="2"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ca="1" si="2"/>
+        <v>943</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ca="1" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ca="1" si="2"/>
+        <v>874</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ca="1" si="2"/>
+        <v>693</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ca="1" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ca="1" si="2"/>
+        <v>909</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ca="1" si="2"/>
+        <v>854</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ca="1" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ca="1" si="2"/>
+        <v>727</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ca="1" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ca="1" si="2"/>
+        <v>813</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ca="1" si="2"/>
+        <v>569</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ca="1" si="2"/>
+        <v>446</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ca="1" si="2"/>
+        <v>904</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ca="1" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="2"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ca="1" si="2"/>
+        <v>581</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="2"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ca="1" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="2"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ca="1" si="2"/>
+        <v>830</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="2"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" ca="1" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="2"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" ca="1" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="2"/>
+        <v>884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" ca="1" si="2"/>
+        <v>516</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="2"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" ca="1" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="2"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" ca="1" si="2"/>
+        <v>925</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="2"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" ca="1" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="2"/>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" ca="1" si="2"/>
+        <v>690</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" ca="1" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="2"/>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="2"/>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="2"/>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ca="1" si="2"/>
+        <v>698</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="2"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" ca="1" si="2"/>
+        <v>702</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="2"/>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" ca="1" si="2"/>
+        <v>943</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="2"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" ca="1" si="2"/>
+        <v>577</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="2"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" ca="1" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" ca="1" si="2"/>
+        <v>447</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="2"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ca="1" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" ca="1" si="2"/>
+        <v>680</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="2"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" ca="1" si="2"/>
+        <v>811</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="2"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" ca="1" si="2"/>
+        <v>976</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="2"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" ca="1" si="2"/>
+        <v>564</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="2"/>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ca="1" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="2"/>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" ca="1" si="2"/>
+        <v>613</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" ca="1" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="2"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" ca="1" si="2"/>
+        <v>606</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="2"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" ca="1" si="2"/>
+        <v>806</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="2"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ca="1" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="2"/>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ca="1" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" ca="1" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" ref="A70:B133" ca="1" si="3">RANDBETWEEN(0, 1000)</f>
+        <v>923</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="3"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" ca="1" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="3"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="3"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ca="1" si="3"/>
+        <v>848</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="3"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="3"/>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" ca="1" si="3"/>
+        <v>640</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" ca="1" si="3"/>
+        <v>374</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="3"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="3"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" ca="1" si="3"/>
+        <v>701</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="3"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" ca="1" si="3"/>
+        <v>727</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="3"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" ca="1" si="3"/>
+        <v>890</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="3"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" ca="1" si="3"/>
+        <v>932</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="3"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" ca="1" si="3"/>
+        <v>497</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" ca="1" si="3"/>
+        <v>661</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="3"/>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" ca="1" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="3"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" ca="1" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="3"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" ca="1" si="3"/>
+        <v>856</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="3"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" ca="1" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" ca="1" si="3"/>
+        <v>334</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" ca="1" si="3"/>
+        <v>636</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="3"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" ca="1" si="3"/>
+        <v>731</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="3"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" ca="1" si="3"/>
+        <v>352</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="3"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" ca="1" si="3"/>
+        <v>620</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="3"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" ca="1" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" ca="1" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="3"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" ca="1" si="3"/>
+        <v>707</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="3"/>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" ca="1" si="3"/>
+        <v>613</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="3"/>
+        <v>738</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" ca="1" si="3"/>
+        <v>171</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="3"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" ca="1" si="3"/>
+        <v>944</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" ca="1" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="3"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="3"/>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" ca="1" si="3"/>
+        <v>273</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="3"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" ca="1" si="3"/>
+        <v>362</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="3"/>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" ca="1" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" ca="1" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="3"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="3"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" ca="1" si="3"/>
+        <v>890</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="3"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" ca="1" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="3"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" ca="1" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="3"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" ca="1" si="3"/>
+        <v>703</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="3"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" ca="1" si="3"/>
+        <v>584</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="3"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" ca="1" si="3"/>
+        <v>929</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="3"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" ca="1" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="3"/>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" ca="1" si="3"/>
+        <v>562</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="3"/>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" ca="1" si="3"/>
+        <v>904</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="3"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" ca="1" si="3"/>
+        <v>774</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" ca="1" si="3"/>
+        <v>775</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="3"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" ca="1" si="3"/>
+        <v>394</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="3"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" ca="1" si="3"/>
+        <v>768</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="3"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="3"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" ca="1" si="3"/>
+        <v>882</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="3"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" ca="1" si="3"/>
+        <v>816</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="3"/>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" ca="1" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="3"/>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" ca="1" si="3"/>
+        <v>706</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="3"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" ca="1" si="3"/>
+        <v>963</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="3"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" ca="1" si="3"/>
+        <v>710</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="3"/>
+        <v>906</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" ca="1" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="3"/>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" ca="1" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="3"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" ca="1" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="3"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" ca="1" si="3"/>
+        <v>751</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="3"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" ca="1" si="3"/>
+        <v>609</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ca="1" si="3"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ca="1" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="3"/>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ca="1" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="3"/>
+        <v>928</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" ref="A134:B197" ca="1" si="4">RANDBETWEEN(0, 1000)</f>
+        <v>428</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" ca="1" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="4"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" ca="1" si="4"/>
+        <v>488</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ca="1" si="4"/>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" ca="1" si="4"/>
+        <v>639</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="4"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" ca="1" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="4"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="4"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" ca="1" si="4"/>
+        <v>499</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="4"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" ca="1" si="4"/>
+        <v>858</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="4"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" ca="1" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" ca="1" si="4"/>
+        <v>467</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ca="1" si="4"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ca="1" si="4"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" ca="1" si="4"/>
+        <v>446</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ca="1" si="4"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ca="1" si="4"/>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" ca="1" si="4"/>
+        <v>925</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ca="1" si="4"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" ca="1" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ca="1" si="4"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B149">
+        <f t="shared" ca="1" si="4"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" ca="1" si="4"/>
+        <v>628</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ca="1" si="4"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" ca="1" si="4"/>
+        <v>601</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ca="1" si="4"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" ca="1" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ca="1" si="4"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" ca="1" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ca="1" si="4"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" ca="1" si="4"/>
+        <v>328</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ca="1" si="4"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" ca="1" si="4"/>
+        <v>874</v>
+      </c>
+      <c r="B155">
+        <f t="shared" ca="1" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" ca="1" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ca="1" si="4"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" ca="1" si="4"/>
+        <v>788</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ca="1" si="4"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" ca="1" si="4"/>
+        <v>445</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ca="1" si="4"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" ca="1" si="4"/>
+        <v>739</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ca="1" si="4"/>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" ca="1" si="4"/>
+        <v>433</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ca="1" si="4"/>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ca="1" si="4"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" ca="1" si="4"/>
+        <v>811</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ca="1" si="4"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" ca="1" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ca="1" si="4"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" ca="1" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="B164">
+        <f t="shared" ca="1" si="4"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" ca="1" si="4"/>
+        <v>685</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="4"/>
+        <v>914</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" ca="1" si="4"/>
+        <v>741</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ca="1" si="4"/>
+        <v>824</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" ca="1" si="4"/>
+        <v>854</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ca="1" si="4"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" ca="1" si="4"/>
+        <v>379</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ca="1" si="4"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" ca="1" si="4"/>
+        <v>693</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ca="1" si="4"/>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" ca="1" si="4"/>
+        <v>822</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ca="1" si="4"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" ca="1" si="4"/>
+        <v>413</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ca="1" si="4"/>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" ca="1" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ca="1" si="4"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" ca="1" si="4"/>
+        <v>768</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ca="1" si="4"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" ca="1" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ca="1" si="4"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" ca="1" si="4"/>
+        <v>706</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ca="1" si="4"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" ca="1" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="B176">
+        <f t="shared" ca="1" si="4"/>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" ca="1" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="B177">
+        <f t="shared" ca="1" si="4"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" ca="1" si="4"/>
+        <v>585</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ca="1" si="4"/>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" ca="1" si="4"/>
+        <v>492</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ca="1" si="4"/>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" ca="1" si="4"/>
+        <v>996</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ca="1" si="4"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ca="1" si="4"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" ca="1" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="4"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="4"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" ca="1" si="4"/>
+        <v>974</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" ca="1" si="4"/>
+        <v>569</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="4"/>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" ca="1" si="4"/>
+        <v>381</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" ca="1" si="4"/>
+        <v>694</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="4"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ca="1" si="4"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" ca="1" si="4"/>
+        <v>357</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" ca="1" si="4"/>
+        <v>386</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="4"/>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" ca="1" si="4"/>
+        <v>365</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="4"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" ca="1" si="4"/>
+        <v>765</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ca="1" si="4"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" ca="1" si="4"/>
+        <v>341</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ca="1" si="4"/>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" ca="1" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ca="1" si="4"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B197">
+        <f t="shared" ca="1" si="4"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" ref="A198:B251" ca="1" si="5">RANDBETWEEN(0, 1000)</f>
+        <v>92</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ca="1" si="5"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" ca="1" si="5"/>
+        <v>845</v>
+      </c>
+      <c r="B199">
+        <f t="shared" ca="1" si="5"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" ca="1" si="5"/>
+        <v>299</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ca="1" si="5"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" ca="1" si="5"/>
+        <v>404</v>
+      </c>
+      <c r="B201">
+        <f t="shared" ca="1" si="5"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="B202">
+        <f t="shared" ca="1" si="5"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" ca="1" si="5"/>
+        <v>603</v>
+      </c>
+      <c r="B203">
+        <f t="shared" ca="1" si="5"/>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" ca="1" si="5"/>
+        <v>740</v>
+      </c>
+      <c r="B204">
+        <f t="shared" ca="1" si="5"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" ca="1" si="5"/>
+        <v>651</v>
+      </c>
+      <c r="B205">
+        <f t="shared" ca="1" si="5"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" ca="1" si="5"/>
+        <v>565</v>
+      </c>
+      <c r="B206">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" ca="1" si="5"/>
+        <v>892</v>
+      </c>
+      <c r="B207">
+        <f t="shared" ca="1" si="5"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" ca="1" si="5"/>
+        <v>574</v>
+      </c>
+      <c r="B208">
+        <f t="shared" ca="1" si="5"/>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" ca="1" si="5"/>
+        <v>479</v>
+      </c>
+      <c r="B209">
+        <f t="shared" ca="1" si="5"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" ca="1" si="5"/>
+        <v>246</v>
+      </c>
+      <c r="B210">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" ca="1" si="5"/>
+        <v>423</v>
+      </c>
+      <c r="B211">
+        <f t="shared" ca="1" si="5"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" ca="1" si="5"/>
+        <v>214</v>
+      </c>
+      <c r="B212">
+        <f t="shared" ca="1" si="5"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" ca="1" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="B213">
+        <f t="shared" ca="1" si="5"/>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" ca="1" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="B214">
+        <f t="shared" ca="1" si="5"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" ca="1" si="5"/>
+        <v>914</v>
+      </c>
+      <c r="B215">
+        <f t="shared" ca="1" si="5"/>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" ca="1" si="5"/>
+        <v>742</v>
+      </c>
+      <c r="B216">
+        <f t="shared" ca="1" si="5"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" ca="1" si="5"/>
+        <v>367</v>
+      </c>
+      <c r="B217">
+        <f t="shared" ca="1" si="5"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" ca="1" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="B218">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" ca="1" si="5"/>
+        <v>586</v>
+      </c>
+      <c r="B219">
+        <f t="shared" ca="1" si="5"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" ca="1" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="B220">
+        <f t="shared" ca="1" si="5"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" ca="1" si="5"/>
+        <v>636</v>
+      </c>
+      <c r="B221">
+        <f t="shared" ca="1" si="5"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" ca="1" si="5"/>
+        <v>812</v>
+      </c>
+      <c r="B222">
+        <f t="shared" ca="1" si="5"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" ca="1" si="5"/>
+        <v>863</v>
+      </c>
+      <c r="B223">
+        <f t="shared" ca="1" si="5"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" ca="1" si="5"/>
+        <v>517</v>
+      </c>
+      <c r="B224">
+        <f t="shared" ca="1" si="5"/>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" ca="1" si="5"/>
+        <v>131</v>
+      </c>
+      <c r="B225">
+        <f t="shared" ca="1" si="5"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" ca="1" si="5"/>
+        <v>317</v>
+      </c>
+      <c r="B226">
+        <f t="shared" ca="1" si="5"/>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" ca="1" si="5"/>
+        <v>305</v>
+      </c>
+      <c r="B227">
+        <f t="shared" ca="1" si="5"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" ca="1" si="5"/>
+        <v>828</v>
+      </c>
+      <c r="B228">
+        <f t="shared" ca="1" si="5"/>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="B229">
+        <f t="shared" ca="1" si="5"/>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" ca="1" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="B230">
+        <f t="shared" ca="1" si="5"/>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" ca="1" si="5"/>
+        <v>665</v>
+      </c>
+      <c r="B231">
+        <f t="shared" ca="1" si="5"/>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" ca="1" si="5"/>
+        <v>649</v>
+      </c>
+      <c r="B232">
+        <f t="shared" ca="1" si="5"/>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" ca="1" si="5"/>
+        <v>488</v>
+      </c>
+      <c r="B233">
+        <f t="shared" ca="1" si="5"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" ca="1" si="5"/>
+        <v>646</v>
+      </c>
+      <c r="B234">
+        <f t="shared" ca="1" si="5"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" ca="1" si="5"/>
+        <v>684</v>
+      </c>
+      <c r="B235">
+        <f t="shared" ca="1" si="5"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" ca="1" si="5"/>
+        <v>844</v>
+      </c>
+      <c r="B236">
+        <f t="shared" ca="1" si="5"/>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" ca="1" si="5"/>
+        <v>942</v>
+      </c>
+      <c r="B237">
+        <f t="shared" ca="1" si="5"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" ca="1" si="5"/>
+        <v>745</v>
+      </c>
+      <c r="B238">
+        <f t="shared" ca="1" si="5"/>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" ca="1" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="B239">
+        <f t="shared" ca="1" si="5"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" ca="1" si="5"/>
+        <v>328</v>
+      </c>
+      <c r="B240">
+        <f t="shared" ca="1" si="5"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f t="shared" ca="1" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="B241">
+        <f t="shared" ca="1" si="5"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f t="shared" ca="1" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="B242">
+        <f t="shared" ca="1" si="5"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="B243">
+        <f t="shared" ca="1" si="5"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f t="shared" ca="1" si="5"/>
+        <v>379</v>
+      </c>
+      <c r="B244">
+        <f t="shared" ca="1" si="5"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f t="shared" ca="1" si="5"/>
+        <v>665</v>
+      </c>
+      <c r="B245">
+        <f t="shared" ca="1" si="5"/>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" ca="1" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="B246">
+        <f t="shared" ca="1" si="5"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" ca="1" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="B247">
+        <f t="shared" ca="1" si="5"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" ca="1" si="5"/>
+        <v>197</v>
+      </c>
+      <c r="B248">
+        <f t="shared" ca="1" si="5"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" ca="1" si="5"/>
+        <v>387</v>
+      </c>
+      <c r="B249">
+        <f t="shared" ca="1" si="5"/>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" ca="1" si="5"/>
+        <v>426</v>
+      </c>
+      <c r="B250">
+        <f t="shared" ca="1" si="5"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" ca="1" si="5"/>
+        <v>258</v>
+      </c>
+      <c r="B251">
+        <f t="shared" ca="1" si="5"/>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2325f11b474e16c2/Desktop/Projects/Kmeans/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamir\OneDrive\Desktop\Projects\Kmeans\kmeans\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{A848EAE7-05CD-4EC7-A07B-CD66DD94098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482E3F10-54BA-4BF3-8BAE-877AD1713973}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D686136-E680-411B-B311-4D68B8524EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41BC285C-F860-4750-B598-CEC70B0767CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41BC285C-F860-4750-B598-CEC70B0767CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>A</t>
   </si>
@@ -52,7 +43,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -98,7 +89,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -393,14 +384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20754157-BE4F-41C5-8638-3E921FB0E3C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57EE8E-50AE-4BCB-8E34-E7C94DBEC86A}">
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="D249" sqref="D249"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -412,2432 +403,4560 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>525</v>
+      </c>
+      <c r="B2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>469</v>
+      </c>
+      <c r="B4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>623</v>
+      </c>
+      <c r="B5">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>264</v>
+      </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>830</v>
+      </c>
+      <c r="B7">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>590</v>
+      </c>
+      <c r="B8">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>911</v>
+      </c>
+      <c r="B9">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>696</v>
+      </c>
+      <c r="B10">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>244</v>
+      </c>
+      <c r="B11">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>677</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>576</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>104</v>
+      </c>
+      <c r="B15">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>285</v>
+      </c>
+      <c r="B16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>296</v>
+      </c>
+      <c r="B17">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>301</v>
+      </c>
+      <c r="B18">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>980</v>
+      </c>
+      <c r="B19">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>279</v>
+      </c>
+      <c r="B20">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>163</v>
+      </c>
+      <c r="B21">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>411</v>
+      </c>
+      <c r="B22">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>713</v>
+      </c>
+      <c r="B23">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>634</v>
+      </c>
+      <c r="B24">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>906</v>
+      </c>
+      <c r="B27">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>786</v>
+      </c>
+      <c r="B28">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>290</v>
+      </c>
+      <c r="B29">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>632</v>
+      </c>
+      <c r="B30">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>429</v>
+      </c>
+      <c r="B31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>562</v>
+      </c>
+      <c r="B32">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>914</v>
+      </c>
+      <c r="B33">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>917</v>
+      </c>
+      <c r="B35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>678</v>
+      </c>
+      <c r="B36">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>514</v>
+      </c>
+      <c r="B37">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>354</v>
+      </c>
+      <c r="B38">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>270</v>
+      </c>
+      <c r="B39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>244</v>
+      </c>
+      <c r="B40">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>365</v>
+      </c>
+      <c r="B42">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>156</v>
+      </c>
+      <c r="B43">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>258</v>
+      </c>
+      <c r="B44">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>543</v>
+      </c>
+      <c r="B45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>939</v>
+      </c>
+      <c r="B46">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>507</v>
+      </c>
+      <c r="B47">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>460</v>
+      </c>
+      <c r="B49">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>597</v>
+      </c>
+      <c r="B50">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>19</v>
+      </c>
+      <c r="B51">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>74</v>
+      </c>
+      <c r="B52">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>332</v>
+      </c>
+      <c r="B53">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>658</v>
+      </c>
+      <c r="B55">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>828</v>
+      </c>
+      <c r="B56">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>192</v>
+      </c>
+      <c r="B57">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>455</v>
+      </c>
+      <c r="B58">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>150</v>
+      </c>
+      <c r="B59">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>929</v>
+      </c>
+      <c r="B60">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>90</v>
+      </c>
+      <c r="B61">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>402</v>
+      </c>
+      <c r="B62">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>493</v>
+      </c>
+      <c r="B63">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>330</v>
+      </c>
+      <c r="B64">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>590</v>
+      </c>
+      <c r="B65">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>928</v>
+      </c>
+      <c r="B66">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>444</v>
+      </c>
+      <c r="B67">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>873</v>
+      </c>
+      <c r="B68">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>273</v>
+      </c>
+      <c r="B69">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>257</v>
+      </c>
+      <c r="B70">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>791</v>
+      </c>
+      <c r="B72">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>236</v>
+      </c>
+      <c r="B73">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>255</v>
+      </c>
+      <c r="B74">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>45</v>
+      </c>
+      <c r="B75">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>207</v>
+      </c>
+      <c r="B76">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>589</v>
+      </c>
+      <c r="B77">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>928</v>
+      </c>
+      <c r="B78">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>543</v>
+      </c>
+      <c r="B79">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>635</v>
+      </c>
+      <c r="B80">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>961</v>
+      </c>
+      <c r="B81">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>924</v>
+      </c>
+      <c r="B82">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>348</v>
+      </c>
+      <c r="B83">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>480</v>
+      </c>
+      <c r="B84">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>994</v>
+      </c>
+      <c r="B85">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>29</v>
+      </c>
+      <c r="B86">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>548</v>
+      </c>
+      <c r="B87">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>539</v>
+      </c>
+      <c r="B88">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>848</v>
+      </c>
+      <c r="B89">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>673</v>
+      </c>
+      <c r="B90">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>997</v>
+      </c>
+      <c r="B91">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>496</v>
+      </c>
+      <c r="B92">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>696</v>
+      </c>
+      <c r="B93">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>423</v>
+      </c>
+      <c r="B94">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>815</v>
+      </c>
+      <c r="B95">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>428</v>
+      </c>
+      <c r="B96">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>228</v>
+      </c>
+      <c r="B97">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>490</v>
+      </c>
+      <c r="B98">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>887</v>
+      </c>
+      <c r="B99">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>303</v>
+      </c>
+      <c r="B100">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>151</v>
+      </c>
+      <c r="B101">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>224</v>
+      </c>
+      <c r="B102">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>364</v>
+      </c>
+      <c r="B103">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>479</v>
+      </c>
+      <c r="B104">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>685</v>
+      </c>
+      <c r="B105">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>614</v>
+      </c>
+      <c r="B106">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>162</v>
+      </c>
+      <c r="B107">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>203</v>
+      </c>
+      <c r="B108">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>66</v>
+      </c>
+      <c r="B109">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>794</v>
+      </c>
+      <c r="B110">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>464</v>
+      </c>
+      <c r="B111">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>49</v>
+      </c>
+      <c r="B113">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>534</v>
+      </c>
+      <c r="B114">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>217</v>
+      </c>
+      <c r="B115">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>747</v>
+      </c>
+      <c r="B116">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>399</v>
+      </c>
+      <c r="B117">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>747</v>
+      </c>
+      <c r="B118">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>635</v>
+      </c>
+      <c r="B119">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>402</v>
+      </c>
+      <c r="B121">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>986</v>
+      </c>
+      <c r="B122">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>697</v>
+      </c>
+      <c r="B123">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>735</v>
+      </c>
+      <c r="B124">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>357</v>
+      </c>
+      <c r="B125">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>945</v>
+      </c>
+      <c r="B126">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>646</v>
+      </c>
+      <c r="B127">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>105</v>
+      </c>
+      <c r="B128">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>78</v>
+      </c>
+      <c r="B129">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>960</v>
+      </c>
+      <c r="B130">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>495</v>
+      </c>
+      <c r="B131">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>218</v>
+      </c>
+      <c r="B132">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>396</v>
+      </c>
+      <c r="B133">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>504</v>
+      </c>
+      <c r="B134">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>518</v>
+      </c>
+      <c r="B135">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>558</v>
+      </c>
+      <c r="B136">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>658</v>
+      </c>
+      <c r="B137">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>693</v>
+      </c>
+      <c r="B138">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>757</v>
+      </c>
+      <c r="B139">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>498</v>
+      </c>
+      <c r="B140">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>224</v>
+      </c>
+      <c r="B141">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>785</v>
+      </c>
+      <c r="B142">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>519</v>
+      </c>
+      <c r="B143">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>801</v>
+      </c>
+      <c r="B144">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>973</v>
+      </c>
+      <c r="B145">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>675</v>
+      </c>
+      <c r="B146">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>876</v>
+      </c>
+      <c r="B147">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>124</v>
+      </c>
+      <c r="B148">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>798</v>
+      </c>
+      <c r="B149">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>402</v>
+      </c>
+      <c r="B150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>168</v>
+      </c>
+      <c r="B151">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>510</v>
+      </c>
+      <c r="B152">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>107</v>
+      </c>
+      <c r="B153">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>644</v>
+      </c>
+      <c r="B154">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>498</v>
+      </c>
+      <c r="B155">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>897</v>
+      </c>
+      <c r="B156">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>324</v>
+      </c>
+      <c r="B157">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>219</v>
+      </c>
+      <c r="B158">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>237</v>
+      </c>
+      <c r="B159">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>611</v>
+      </c>
+      <c r="B160">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>390</v>
+      </c>
+      <c r="B161">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>586</v>
+      </c>
+      <c r="B162">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>518</v>
+      </c>
+      <c r="B163">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>869</v>
+      </c>
+      <c r="B164">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>260</v>
+      </c>
+      <c r="B165">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>347</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>743</v>
+      </c>
+      <c r="B167">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>279</v>
+      </c>
+      <c r="B168">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>405</v>
+      </c>
+      <c r="B169">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>742</v>
+      </c>
+      <c r="B170">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>78</v>
+      </c>
+      <c r="B171">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>340</v>
+      </c>
+      <c r="B172">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>313</v>
+      </c>
+      <c r="B173">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>152</v>
+      </c>
+      <c r="B174">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>957</v>
+      </c>
+      <c r="B175">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>940</v>
+      </c>
+      <c r="B176">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>985</v>
+      </c>
+      <c r="B177">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>599</v>
+      </c>
+      <c r="B178">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>575</v>
+      </c>
+      <c r="B179">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>861</v>
+      </c>
+      <c r="B180">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>439</v>
+      </c>
+      <c r="B181">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>246</v>
+      </c>
+      <c r="B182">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>398</v>
+      </c>
+      <c r="B183">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>271</v>
+      </c>
+      <c r="B184">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>210</v>
+      </c>
+      <c r="B185">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>896</v>
+      </c>
+      <c r="B186">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>653</v>
+      </c>
+      <c r="B187">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>232</v>
+      </c>
+      <c r="B188">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>847</v>
+      </c>
+      <c r="B189">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>493</v>
+      </c>
+      <c r="B190">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>835</v>
+      </c>
+      <c r="B191">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>196</v>
+      </c>
+      <c r="B192">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>414</v>
+      </c>
+      <c r="B193">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>620</v>
+      </c>
+      <c r="B194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>206</v>
+      </c>
+      <c r="B195">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>505</v>
+      </c>
+      <c r="B196">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>992</v>
+      </c>
+      <c r="B197">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>289</v>
+      </c>
+      <c r="B199">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>892</v>
+      </c>
+      <c r="B200">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>177</v>
+      </c>
+      <c r="B201">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>11</v>
+      </c>
+      <c r="B202">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>378</v>
+      </c>
+      <c r="B203">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>980</v>
+      </c>
+      <c r="B204">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>582</v>
+      </c>
+      <c r="B205">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>146</v>
+      </c>
+      <c r="B206">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>29</v>
+      </c>
+      <c r="B207">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>784</v>
+      </c>
+      <c r="B208">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>333</v>
+      </c>
+      <c r="B209">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>556</v>
+      </c>
+      <c r="B210">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>564</v>
+      </c>
+      <c r="B211">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>208</v>
+      </c>
+      <c r="B212">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>574</v>
+      </c>
+      <c r="B213">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>529</v>
+      </c>
+      <c r="B214">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>574</v>
+      </c>
+      <c r="B215">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>548</v>
+      </c>
+      <c r="B216">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>963</v>
+      </c>
+      <c r="B217">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>993</v>
+      </c>
+      <c r="B218">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>410</v>
+      </c>
+      <c r="B219">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>990</v>
+      </c>
+      <c r="B220">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>175</v>
+      </c>
+      <c r="B221">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>17</v>
+      </c>
+      <c r="B222">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>693</v>
+      </c>
+      <c r="B223">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>110</v>
+      </c>
+      <c r="B224">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>399</v>
+      </c>
+      <c r="B225">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>311</v>
+      </c>
+      <c r="B226">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>808</v>
+      </c>
+      <c r="B227">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>376</v>
+      </c>
+      <c r="B228">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>842</v>
+      </c>
+      <c r="B229">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>725</v>
+      </c>
+      <c r="B230">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>407</v>
+      </c>
+      <c r="B231">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>646</v>
+      </c>
+      <c r="B232">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>224</v>
+      </c>
+      <c r="B233">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>749</v>
+      </c>
+      <c r="B234">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>905</v>
+      </c>
+      <c r="B235">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>668</v>
+      </c>
+      <c r="B236">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>282</v>
+      </c>
+      <c r="B237">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>15</v>
+      </c>
+      <c r="B238">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>985</v>
+      </c>
+      <c r="B239">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>581</v>
+      </c>
+      <c r="B240">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>269</v>
+      </c>
+      <c r="B241">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>794</v>
+      </c>
+      <c r="B242">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>94</v>
+      </c>
+      <c r="B243">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>416</v>
+      </c>
+      <c r="B244">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>452</v>
+      </c>
+      <c r="B245">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>500</v>
+      </c>
+      <c r="B246">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>946</v>
+      </c>
+      <c r="B247">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>592</v>
+      </c>
+      <c r="B248">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>616</v>
+      </c>
+      <c r="B249">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>185</v>
+      </c>
+      <c r="B250">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>19</v>
+      </c>
+      <c r="B251">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561CB06-7035-47AB-AEA1-47876C2B240C}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>706</v>
+      </c>
+      <c r="B2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>580</v>
+      </c>
+      <c r="B3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>302</v>
+      </c>
+      <c r="B4">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>815</v>
+      </c>
+      <c r="B6">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>863</v>
+      </c>
+      <c r="B8">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>374</v>
+      </c>
+      <c r="B9">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>872</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>950</v>
+      </c>
+      <c r="B11">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20754157-BE4F-41C5-8638-3E921FB0E3C3}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B251"/>
+  <sheetViews>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="G244" sqref="G244"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <f t="shared" ref="A2:A4" ca="1" si="0">RANDBETWEEN(0, 1000)</f>
-        <v>83</v>
+        <v>824</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B4" ca="1" si="1">RANDBETWEEN(0, 1000)</f>
-        <v>863</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>402</v>
+        <v>516</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="1"/>
-        <v>668</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>610</v>
+        <v>844</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>497</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">RANDBETWEEN(0, 1000)</f>
-        <v>732</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <f ca="1">RANDBETWEEN(0, 1000)</f>
-        <v>653</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:B69" ca="1" si="2">RANDBETWEEN(0, 1000)</f>
-        <v>322</v>
+        <v>801</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>504</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="2"/>
-        <v>536</v>
+        <v>431</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="2"/>
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>512</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="2"/>
-        <v>456</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>570</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>321</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="2"/>
-        <v>369</v>
+        <v>610</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>537</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="2"/>
-        <v>649</v>
+        <v>284</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>739</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="2"/>
-        <v>806</v>
+        <v>438</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>514</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="2"/>
-        <v>976</v>
+        <v>470</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>289</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>843</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>701</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="2"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="2"/>
-        <v>768</v>
+        <v>312</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>501</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>962</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>821</v>
+        <v>855</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="2"/>
-        <v>880</v>
+        <v>193</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>714</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="2"/>
-        <v>943</v>
+        <v>527</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>173</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="2"/>
-        <v>640</v>
+        <v>452</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>540</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="2"/>
+        <v>968</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
         <v>874</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="2"/>
-        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="2"/>
-        <v>693</v>
+        <v>888</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>464</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="2"/>
-        <v>334</v>
+        <v>755</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>451</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="2"/>
-        <v>909</v>
+        <v>377</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>869</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="2"/>
-        <v>854</v>
+        <v>452</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>296</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>477</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>422</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="2"/>
-        <v>440</v>
+        <v>939</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>690</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="2"/>
-        <v>727</v>
+        <v>269</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>694</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
         <v>441</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="2"/>
-        <v>678</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="2"/>
-        <v>813</v>
+        <v>461</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="2"/>
-        <v>569</v>
+        <v>168</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="2"/>
-        <v>446</v>
+        <v>341</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>657</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="2"/>
-        <v>904</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>779</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="2"/>
-        <v>360</v>
+        <v>202</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>482</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="2"/>
-        <v>581</v>
+        <v>247</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>560</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>949</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>379</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="2"/>
-        <v>830</v>
+        <v>66</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>324</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
+        <v>578</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="2"/>
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>884</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="2"/>
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="2"/>
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>645</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="2"/>
-        <v>925</v>
+        <v>593</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>346</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>559</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>738</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="2"/>
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>142</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>758</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>738</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>460</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>743</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>894</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>706</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="2"/>
-        <v>698</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>166</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="2"/>
-        <v>702</v>
+        <v>369</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>926</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="2"/>
-        <v>943</v>
+        <v>613</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>537</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="2"/>
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>358</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>589</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>945</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="2"/>
-        <v>447</v>
+        <v>800</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>822</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>281</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="2"/>
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>768</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="2"/>
-        <v>811</v>
+        <v>787</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>424</v>
+        <v>939</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="2"/>
-        <v>976</v>
+        <v>780</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>346</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="2"/>
-        <v>564</v>
+        <v>461</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>383</v>
+        <v>969</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="2"/>
-        <v>275</v>
+        <v>719</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>929</v>
+        <v>629</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="2"/>
-        <v>613</v>
+        <v>509</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>141</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="2"/>
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>443</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="2"/>
-        <v>606</v>
+        <v>944</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="2"/>
-        <v>806</v>
+        <v>547</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>441</v>
+        <v>689</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>489</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ca="1" si="2"/>
-        <v>174</v>
+        <v>585</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>873</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="2"/>
-        <v>361</v>
+        <v>869</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>549</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="2"/>
-        <v>271</v>
+        <v>564</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>840</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ref="A70:B133" ca="1" si="3">RANDBETWEEN(0, 1000)</f>
-        <v>923</v>
+        <v>14</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>153</v>
+        <v>919</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="3"/>
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>804</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>517</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>452</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="3"/>
-        <v>848</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>614</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
-        <v>595</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="3"/>
-        <v>640</v>
+        <v>801</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>374</v>
+        <v>666</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>454</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>328</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>554</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>678</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>881</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>727</v>
+        <v>803</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="3"/>
-        <v>890</v>
+        <v>97</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>735</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="3"/>
-        <v>932</v>
+        <v>463</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>359</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>866</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>661</v>
+        <v>755</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>708</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>345</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>356</v>
+        <v>811</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>540</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>871</v>
+        <v>756</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="3"/>
-        <v>856</v>
+        <v>211</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>369</v>
+        <v>835</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>334</v>
+        <v>38</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>636</v>
+        <v>59</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>537</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="3"/>
-        <v>731</v>
+        <v>77</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>587</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="3"/>
-        <v>352</v>
+        <v>851</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>361</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>620</v>
+        <v>519</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>427</v>
+        <v>940</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="3"/>
-        <v>279</v>
+        <v>965</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="3"/>
-        <v>650</v>
+        <v>916</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>347</v>
+        <v>699</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>707</v>
+        <v>911</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>973</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="3"/>
-        <v>613</v>
+        <v>379</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>738</v>
+        <v>610</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="3"/>
-        <v>171</v>
+        <v>937</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>409</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>944</v>
+        <v>557</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>468</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>440</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>803</v>
+        <v>698</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ca="1" si="3"/>
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="3"/>
-        <v>602</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" ca="1" si="3"/>
-        <v>362</v>
+        <v>35</v>
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="3"/>
-        <v>607</v>
+        <v>805</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" ca="1" si="3"/>
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="3"/>
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" ca="1" si="3"/>
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="3"/>
-        <v>970</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="3"/>
-        <v>648</v>
+        <v>676</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" ca="1" si="3"/>
-        <v>890</v>
+        <v>174</v>
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="3"/>
-        <v>805</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ca="1" si="3"/>
-        <v>446</v>
+        <v>640</v>
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="3"/>
-        <v>505</v>
+        <v>787</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ca="1" si="3"/>
-        <v>118</v>
+        <v>882</v>
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="3"/>
-        <v>221</v>
+        <v>660</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" ca="1" si="3"/>
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="3"/>
-        <v>530</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ca="1" si="3"/>
-        <v>584</v>
+        <v>504</v>
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="3"/>
-        <v>361</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" ca="1" si="3"/>
-        <v>929</v>
+        <v>999</v>
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="3"/>
-        <v>189</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" ca="1" si="3"/>
-        <v>459</v>
+        <v>990</v>
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="3"/>
-        <v>864</v>
+        <v>689</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" ca="1" si="3"/>
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="3"/>
-        <v>862</v>
+        <v>621</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ca="1" si="3"/>
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="3"/>
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" ca="1" si="3"/>
-        <v>774</v>
+        <v>667</v>
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="3"/>
-        <v>240</v>
+        <v>785</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ca="1" si="3"/>
-        <v>775</v>
+        <v>962</v>
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="3"/>
-        <v>549</v>
+        <v>777</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" ca="1" si="3"/>
-        <v>394</v>
+        <v>513</v>
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="3"/>
-        <v>916</v>
+        <v>802</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" ca="1" si="3"/>
-        <v>768</v>
+        <v>276</v>
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="3"/>
-        <v>350</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="3"/>
-        <v>472</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ca="1" si="3"/>
-        <v>882</v>
+        <v>1000</v>
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="3"/>
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" ca="1" si="3"/>
-        <v>816</v>
+        <v>138</v>
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="3"/>
-        <v>991</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" ca="1" si="3"/>
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="3"/>
-        <v>591</v>
+        <v>763</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" ca="1" si="3"/>
-        <v>706</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="3"/>
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="3"/>
-        <v>691</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" ca="1" si="3"/>
-        <v>710</v>
+        <v>168</v>
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="3"/>
-        <v>906</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" ca="1" si="3"/>
-        <v>105</v>
+        <v>830</v>
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="3"/>
-        <v>834</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" ca="1" si="3"/>
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="3"/>
-        <v>301</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="3"/>
-        <v>797</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" ca="1" si="3"/>
-        <v>751</v>
+        <v>35</v>
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="3"/>
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ca="1" si="3"/>
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="3"/>
-        <v>447</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ca="1" si="3"/>
-        <v>143</v>
+        <v>504</v>
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="3"/>
-        <v>759</v>
+        <v>978</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ca="1" si="3"/>
-        <v>438</v>
+        <v>242</v>
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="3"/>
-        <v>928</v>
+        <v>842</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" ref="A134:B197" ca="1" si="4">RANDBETWEEN(0, 1000)</f>
-        <v>428</v>
+        <v>712</v>
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>691</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" ca="1" si="4"/>
-        <v>227</v>
+        <v>368</v>
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="4"/>
-        <v>367</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" ca="1" si="4"/>
-        <v>488</v>
+        <v>752</v>
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="4"/>
-        <v>939</v>
+        <v>811</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" ca="1" si="4"/>
-        <v>639</v>
+        <v>754</v>
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="4"/>
-        <v>966</v>
+        <v>697</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" ca="1" si="4"/>
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="4"/>
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>742</v>
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="4"/>
-        <v>410</v>
+        <v>697</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" ca="1" si="4"/>
-        <v>499</v>
+        <v>604</v>
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="4"/>
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" ca="1" si="4"/>
-        <v>858</v>
+        <v>200</v>
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="4"/>
-        <v>780</v>
+        <v>847</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" ca="1" si="4"/>
-        <v>345</v>
+        <v>621</v>
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" ca="1" si="4"/>
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="4"/>
-        <v>434</v>
+        <v>678</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="4"/>
-        <v>670</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ca="1" si="4"/>
-        <v>446</v>
+        <v>98</v>
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="4"/>
-        <v>830</v>
+        <v>919</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="4"/>
-        <v>635</v>
+        <v>454</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" ca="1" si="4"/>
-        <v>925</v>
+        <v>465</v>
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="4"/>
-        <v>605</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" ca="1" si="4"/>
-        <v>271</v>
+        <v>412</v>
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="4"/>
-        <v>314</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>944</v>
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="4"/>
-        <v>402</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" ca="1" si="4"/>
-        <v>628</v>
+        <v>675</v>
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="4"/>
-        <v>202</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" ca="1" si="4"/>
-        <v>601</v>
+        <v>906</v>
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="4"/>
-        <v>593</v>
+        <v>508</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" ca="1" si="4"/>
-        <v>147</v>
+        <v>681</v>
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="4"/>
-        <v>532</v>
+        <v>369</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" ca="1" si="4"/>
-        <v>432</v>
+        <v>645</v>
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="4"/>
-        <v>460</v>
+        <v>946</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" ca="1" si="4"/>
-        <v>328</v>
+        <v>717</v>
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="4"/>
-        <v>874</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" ca="1" si="4"/>
-        <v>874</v>
+        <v>502</v>
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <v>512</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ca="1" si="4"/>
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="4"/>
-        <v>268</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ca="1" si="4"/>
-        <v>788</v>
+        <v>636</v>
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="4"/>
-        <v>138</v>
+        <v>190</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" ca="1" si="4"/>
-        <v>445</v>
+        <v>819</v>
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="4"/>
-        <v>455</v>
+        <v>638</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" ca="1" si="4"/>
-        <v>739</v>
+        <v>132</v>
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="4"/>
-        <v>968</v>
+        <v>759</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" ca="1" si="4"/>
-        <v>433</v>
+        <v>978</v>
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="4"/>
-        <v>962</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="4"/>
-        <v>452</v>
+        <v>713</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" ca="1" si="4"/>
-        <v>811</v>
+        <v>158</v>
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="4"/>
-        <v>382</v>
+        <v>747</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" ca="1" si="4"/>
-        <v>309</v>
+        <v>509</v>
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="4"/>
-        <v>494</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" ca="1" si="4"/>
-        <v>183</v>
+        <v>385</v>
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="4"/>
-        <v>845</v>
+        <v>516</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" ca="1" si="4"/>
-        <v>685</v>
+        <v>825</v>
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="4"/>
-        <v>914</v>
+        <v>994</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" ca="1" si="4"/>
-        <v>741</v>
+        <v>21</v>
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="4"/>
-        <v>824</v>
+        <v>675</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" ca="1" si="4"/>
-        <v>854</v>
+        <v>342</v>
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="4"/>
-        <v>401</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ca="1" si="4"/>
-        <v>379</v>
+        <v>899</v>
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="4"/>
-        <v>149</v>
+        <v>882</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ca="1" si="4"/>
-        <v>693</v>
+        <v>511</v>
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="4"/>
-        <v>774</v>
+        <v>924</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" ca="1" si="4"/>
-        <v>822</v>
+        <v>267</v>
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="4"/>
-        <v>189</v>
+        <v>760</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" ca="1" si="4"/>
-        <v>413</v>
+        <v>851</v>
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="4"/>
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" ca="1" si="4"/>
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="4"/>
-        <v>875</v>
+        <v>833</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" ca="1" si="4"/>
-        <v>768</v>
+        <v>456</v>
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="4"/>
-        <v>270</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" ca="1" si="4"/>
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="4"/>
-        <v>282</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" ca="1" si="4"/>
-        <v>706</v>
+        <v>470</v>
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="4"/>
-        <v>808</v>
+        <v>85</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="4"/>
-        <v>657</v>
+        <v>387</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" ca="1" si="4"/>
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="4"/>
-        <v>916</v>
+        <v>772</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" ca="1" si="4"/>
-        <v>585</v>
+        <v>646</v>
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="4"/>
-        <v>731</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" ca="1" si="4"/>
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="4"/>
-        <v>943</v>
+        <v>727</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ca="1" si="4"/>
-        <v>996</v>
+        <v>617</v>
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="4"/>
-        <v>578</v>
+        <v>826</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>933</v>
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="4"/>
-        <v>386</v>
+        <v>781</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" ca="1" si="4"/>
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="4"/>
-        <v>110</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>359</v>
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="4"/>
-        <v>367</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>803</v>
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="4"/>
-        <v>257</v>
+        <v>783</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" ca="1" si="4"/>
-        <v>974</v>
+        <v>652</v>
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>708</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" ca="1" si="4"/>
-        <v>569</v>
+        <v>740</v>
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="4"/>
-        <v>963</v>
+        <v>102</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" ca="1" si="4"/>
-        <v>381</v>
+        <v>811</v>
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" ca="1" si="4"/>
-        <v>694</v>
+        <v>360</v>
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="4"/>
-        <v>506</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="4"/>
-        <v>625</v>
+        <v>295</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" ca="1" si="4"/>
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>906</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" ca="1" si="4"/>
-        <v>386</v>
+        <v>156</v>
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="4"/>
-        <v>778</v>
+        <v>403</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ca="1" si="4"/>
-        <v>365</v>
+        <v>854</v>
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>635</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>868</v>
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="4"/>
-        <v>335</v>
+        <v>264</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" ca="1" si="4"/>
-        <v>765</v>
+        <v>481</v>
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="4"/>
-        <v>189</v>
+        <v>668</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" ca="1" si="4"/>
-        <v>341</v>
+        <v>53</v>
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="4"/>
-        <v>972</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ca="1" si="4"/>
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="4"/>
-        <v>577</v>
+        <v>415</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>477</v>
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="4"/>
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" ref="A198:B251" ca="1" si="5">RANDBETWEEN(0, 1000)</f>
-        <v>92</v>
+        <v>399</v>
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="5"/>
-        <v>343</v>
+        <v>940</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" ca="1" si="5"/>
-        <v>845</v>
+        <v>483</v>
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="5"/>
-        <v>394</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" ca="1" si="5"/>
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="5"/>
-        <v>880</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" ca="1" si="5"/>
-        <v>404</v>
+        <v>848</v>
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="5"/>
-        <v>544</v>
+        <v>856</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>760</v>
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" ca="1" si="5"/>
-        <v>603</v>
+        <v>887</v>
       </c>
       <c r="B203">
         <f t="shared" ca="1" si="5"/>
-        <v>944</v>
+        <v>309</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" ca="1" si="5"/>
-        <v>740</v>
+        <v>913</v>
       </c>
       <c r="B204">
         <f t="shared" ca="1" si="5"/>
-        <v>819</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" ca="1" si="5"/>
-        <v>651</v>
+        <v>355</v>
       </c>
       <c r="B205">
         <f t="shared" ca="1" si="5"/>
-        <v>337</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" ca="1" si="5"/>
-        <v>565</v>
+        <v>197</v>
       </c>
       <c r="B206">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>392</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" ca="1" si="5"/>
-        <v>892</v>
+        <v>408</v>
       </c>
       <c r="B207">
         <f t="shared" ca="1" si="5"/>
-        <v>403</v>
+        <v>423</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" ca="1" si="5"/>
-        <v>574</v>
+        <v>940</v>
       </c>
       <c r="B208">
         <f t="shared" ca="1" si="5"/>
-        <v>596</v>
+        <v>124</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" ca="1" si="5"/>
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="B209">
         <f t="shared" ca="1" si="5"/>
-        <v>432</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" ca="1" si="5"/>
-        <v>246</v>
+        <v>496</v>
       </c>
       <c r="B210">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>685</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" ca="1" si="5"/>
-        <v>423</v>
+        <v>850</v>
       </c>
       <c r="B211">
         <f t="shared" ca="1" si="5"/>
-        <v>534</v>
+        <v>892</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="B212">
         <f t="shared" ca="1" si="5"/>
-        <v>176</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" ca="1" si="5"/>
-        <v>640</v>
+        <v>327</v>
       </c>
       <c r="B213">
         <f t="shared" ca="1" si="5"/>
-        <v>361</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>987</v>
       </c>
       <c r="B214">
         <f t="shared" ca="1" si="5"/>
-        <v>286</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" ca="1" si="5"/>
-        <v>914</v>
+        <v>580</v>
       </c>
       <c r="B215">
         <f t="shared" ca="1" si="5"/>
-        <v>629</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" ca="1" si="5"/>
-        <v>742</v>
+        <v>186</v>
       </c>
       <c r="B216">
         <f t="shared" ca="1" si="5"/>
-        <v>776</v>
+        <v>494</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" ca="1" si="5"/>
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="B217">
         <f t="shared" ca="1" si="5"/>
-        <v>573</v>
+        <v>640</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" ca="1" si="5"/>
-        <v>425</v>
+        <v>535</v>
       </c>
       <c r="B218">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" ca="1" si="5"/>
-        <v>586</v>
+        <v>454</v>
       </c>
       <c r="B219">
         <f t="shared" ca="1" si="5"/>
-        <v>858</v>
+        <v>284</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" ca="1" si="5"/>
-        <v>141</v>
+        <v>586</v>
       </c>
       <c r="B220">
         <f t="shared" ca="1" si="5"/>
-        <v>590</v>
+        <v>428</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" ca="1" si="5"/>
-        <v>636</v>
+        <v>45</v>
       </c>
       <c r="B221">
         <f t="shared" ca="1" si="5"/>
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" ca="1" si="5"/>
-        <v>812</v>
+        <v>41</v>
       </c>
       <c r="B222">
         <f t="shared" ca="1" si="5"/>
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" ca="1" si="5"/>
-        <v>863</v>
+        <v>928</v>
       </c>
       <c r="B223">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>765</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" ca="1" si="5"/>
-        <v>517</v>
+        <v>824</v>
       </c>
       <c r="B224">
         <f t="shared" ca="1" si="5"/>
-        <v>592</v>
+        <v>731</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" ca="1" si="5"/>
-        <v>131</v>
+        <v>448</v>
       </c>
       <c r="B225">
         <f t="shared" ca="1" si="5"/>
-        <v>285</v>
+        <v>964</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" ca="1" si="5"/>
-        <v>317</v>
+        <v>867</v>
       </c>
       <c r="B226">
         <f t="shared" ca="1" si="5"/>
-        <v>674</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" ca="1" si="5"/>
-        <v>305</v>
+        <v>602</v>
       </c>
       <c r="B227">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" ca="1" si="5"/>
-        <v>828</v>
+        <v>136</v>
       </c>
       <c r="B228">
         <f t="shared" ca="1" si="5"/>
-        <v>592</v>
+        <v>618</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>788</v>
       </c>
       <c r="B229">
         <f t="shared" ca="1" si="5"/>
-        <v>879</v>
+        <v>775</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" ca="1" si="5"/>
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="B230">
         <f t="shared" ca="1" si="5"/>
-        <v>962</v>
+        <v>614</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" ca="1" si="5"/>
-        <v>665</v>
+        <v>951</v>
       </c>
       <c r="B231">
         <f t="shared" ca="1" si="5"/>
-        <v>835</v>
+        <v>860</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" ca="1" si="5"/>
-        <v>649</v>
+        <v>891</v>
       </c>
       <c r="B232">
         <f t="shared" ca="1" si="5"/>
-        <v>886</v>
+        <v>941</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" ca="1" si="5"/>
-        <v>488</v>
+        <v>243</v>
       </c>
       <c r="B233">
         <f t="shared" ca="1" si="5"/>
-        <v>419</v>
+        <v>496</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" ca="1" si="5"/>
-        <v>646</v>
+        <v>864</v>
       </c>
       <c r="B234">
         <f t="shared" ca="1" si="5"/>
-        <v>128</v>
+        <v>800</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" ca="1" si="5"/>
-        <v>684</v>
+        <v>136</v>
       </c>
       <c r="B235">
         <f t="shared" ca="1" si="5"/>
-        <v>474</v>
+        <v>316</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" ca="1" si="5"/>
-        <v>844</v>
+        <v>464</v>
       </c>
       <c r="B236">
         <f t="shared" ca="1" si="5"/>
-        <v>612</v>
+        <v>687</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" ca="1" si="5"/>
-        <v>942</v>
+        <v>956</v>
       </c>
       <c r="B237">
         <f t="shared" ca="1" si="5"/>
-        <v>819</v>
+        <v>191</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" ca="1" si="5"/>
-        <v>745</v>
+        <v>919</v>
       </c>
       <c r="B238">
         <f t="shared" ca="1" si="5"/>
-        <v>854</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" ca="1" si="5"/>
-        <v>230</v>
+        <v>528</v>
       </c>
       <c r="B239">
         <f t="shared" ca="1" si="5"/>
-        <v>819</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" ca="1" si="5"/>
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="B240">
         <f t="shared" ca="1" si="5"/>
-        <v>265</v>
+        <v>971</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" ca="1" si="5"/>
-        <v>124</v>
+        <v>354</v>
       </c>
       <c r="B241">
         <f t="shared" ca="1" si="5"/>
-        <v>750</v>
+        <v>822</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" ca="1" si="5"/>
-        <v>124</v>
+        <v>705</v>
       </c>
       <c r="B242">
         <f t="shared" ca="1" si="5"/>
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>301</v>
       </c>
       <c r="B243">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>815</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" ca="1" si="5"/>
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="B244">
         <f t="shared" ca="1" si="5"/>
-        <v>799</v>
+        <v>475</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,67 +4966,67 @@
       </c>
       <c r="B245">
         <f t="shared" ca="1" si="5"/>
-        <v>674</v>
+        <v>496</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" ca="1" si="5"/>
-        <v>128</v>
+        <v>874</v>
       </c>
       <c r="B246">
         <f t="shared" ca="1" si="5"/>
-        <v>137</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" ca="1" si="5"/>
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="B247">
         <f t="shared" ca="1" si="5"/>
-        <v>430</v>
+        <v>768</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" ca="1" si="5"/>
-        <v>197</v>
+        <v>359</v>
       </c>
       <c r="B248">
         <f t="shared" ca="1" si="5"/>
-        <v>420</v>
+        <v>158</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" ca="1" si="5"/>
-        <v>387</v>
+        <v>818</v>
       </c>
       <c r="B249">
         <f t="shared" ca="1" si="5"/>
-        <v>644</v>
+        <v>392</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" ca="1" si="5"/>
-        <v>426</v>
+        <v>36</v>
       </c>
       <c r="B250">
         <f t="shared" ca="1" si="5"/>
-        <v>298</v>
+        <v>120</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" ca="1" si="5"/>
-        <v>258</v>
+        <v>506</v>
       </c>
       <c r="B251">
         <f t="shared" ca="1" si="5"/>
-        <v>643</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
